--- a/testing/test-cases.xlsx
+++ b/testing/test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidstelzer/Documents/GitHub/Library-Management-System-/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7AFE5-3A10-6C4A-8D46-BA6F479E25C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCBA99-CA0B-F648-AEB2-D57720E36131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{72280C72-3010-A34A-9F22-BE7E81A6AFCA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
   <si>
     <t xml:space="preserve">Module Name: </t>
   </si>
@@ -322,6 +322,15 @@
     <t>test-019</t>
   </si>
   <si>
+    <t>test-020</t>
+  </si>
+  <si>
+    <t>test-021</t>
+  </si>
+  <si>
+    <t>test-022</t>
+  </si>
+  <si>
     <t>test-001</t>
   </si>
   <si>
@@ -376,9 +385,6 @@
     <t>Wishlist page - guest should be able to add book to wishlist</t>
   </si>
   <si>
-    <t>Catalog page - guest should be able to browse catalog</t>
-  </si>
-  <si>
     <t>Contact page - guest should be able to send an email with their full name</t>
   </si>
   <si>
@@ -430,10 +436,28 @@
     <t>Home page - Instagram button works</t>
   </si>
   <si>
-    <t>sql install</t>
-  </si>
-  <si>
-    <t>waiting for reply email</t>
+    <t>Catalog page - guest should be able to browse catalog and search for books</t>
+  </si>
+  <si>
+    <t>Wishlist page - guest should be able to remove book from wishlist</t>
+  </si>
+  <si>
+    <t>Catalog page - guest should be able to search book by author</t>
+  </si>
+  <si>
+    <t>Catalog page - guest should be able to search book by genre</t>
+  </si>
+  <si>
+    <t>Catalog page - guest should be able to search book by title</t>
+  </si>
+  <si>
+    <t>test-023</t>
+  </si>
+  <si>
+    <t>test-024</t>
+  </si>
+  <si>
+    <t>Catalog page - details button works</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1383,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,10 +1430,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1423,27 +1447,27 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1457,10 +1481,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1474,10 +1498,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1491,10 +1515,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1508,10 +1532,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1525,10 +1549,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1542,10 +1566,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1559,10 +1583,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1576,27 +1600,27 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8" t="s">
-        <v>130</v>
-      </c>
+      <c r="H12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1610,27 +1634,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="H14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1647,7 +1671,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1664,7 +1688,7 @@
         <v>90</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1681,7 +1705,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1698,7 +1722,7 @@
         <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1715,7 +1739,7 @@
         <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1728,58 +1752,88 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2016,7 +2070,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2034,12 +2088,12 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
